--- a/kojeneration/Conscious Success Report template.xlsx
+++ b/kojeneration/Conscious Success Report template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="2610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="2610" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="title page" sheetId="1" r:id="rId1"/>
@@ -1803,11 +1803,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="174623744"/>
-        <c:axId val="174703360"/>
+        <c:axId val="238729472"/>
+        <c:axId val="238805376"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="174623744"/>
+        <c:axId val="238729472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,14 +1853,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174703360"/>
+        <c:crossAx val="238805376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174703360"/>
+        <c:axId val="238805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1915,7 +1915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174623744"/>
+        <c:crossAx val="238729472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1961,7 +1961,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2062,11 +2062,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178926336"/>
-        <c:axId val="178927872"/>
+        <c:axId val="240624768"/>
+        <c:axId val="240626688"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178926336"/>
+        <c:axId val="240624768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,14 +2112,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178927872"/>
+        <c:crossAx val="240626688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178927872"/>
+        <c:axId val="240626688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2174,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178926336"/>
+        <c:crossAx val="240624768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2220,7 +2220,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2319,11 +2319,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178960256"/>
-        <c:axId val="178961792"/>
+        <c:axId val="240646016"/>
+        <c:axId val="240656384"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178960256"/>
+        <c:axId val="240646016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,14 +2369,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178961792"/>
+        <c:crossAx val="240656384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178961792"/>
+        <c:axId val="240656384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2431,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178960256"/>
+        <c:crossAx val="240646016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2477,7 +2477,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2576,11 +2576,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178859008"/>
-        <c:axId val="178864896"/>
+        <c:axId val="240663168"/>
+        <c:axId val="240685824"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178859008"/>
+        <c:axId val="240663168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,14 +2626,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178864896"/>
+        <c:crossAx val="240685824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178864896"/>
+        <c:axId val="240685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2688,7 +2688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178859008"/>
+        <c:crossAx val="240663168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2734,7 +2734,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2935,11 +2935,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178992256"/>
-        <c:axId val="178993792"/>
+        <c:axId val="240812800"/>
+        <c:axId val="240814336"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178992256"/>
+        <c:axId val="240812800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,14 +2985,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178993792"/>
+        <c:crossAx val="240814336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178993792"/>
+        <c:axId val="240814336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3044,7 +3044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178992256"/>
+        <c:crossAx val="240812800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3090,7 +3090,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3189,11 +3189,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="179032832"/>
-        <c:axId val="179034368"/>
+        <c:axId val="240837760"/>
+        <c:axId val="240839680"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="179032832"/>
+        <c:axId val="240837760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,14 +3239,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179034368"/>
+        <c:crossAx val="240839680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179034368"/>
+        <c:axId val="240839680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3298,7 +3298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179032832"/>
+        <c:crossAx val="240837760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3344,7 +3344,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3443,11 +3443,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="179073408"/>
-        <c:axId val="179074944"/>
+        <c:axId val="240732032"/>
+        <c:axId val="240742400"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="179073408"/>
+        <c:axId val="240732032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,14 +3493,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179074944"/>
+        <c:crossAx val="240742400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179074944"/>
+        <c:axId val="240742400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3552,7 +3552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179073408"/>
+        <c:crossAx val="240732032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3598,7 +3598,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3697,11 +3697,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="179107328"/>
-        <c:axId val="179108864"/>
+        <c:axId val="240765568"/>
+        <c:axId val="240771840"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="179107328"/>
+        <c:axId val="240765568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,14 +3747,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179108864"/>
+        <c:crossAx val="240771840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179108864"/>
+        <c:axId val="240771840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3806,7 +3806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179107328"/>
+        <c:crossAx val="240765568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3852,7 +3852,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3869,10 +3869,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27035483722429443"/>
+          <c:x val="0.27035483722429465"/>
           <c:y val="0.11874443849858576"/>
           <c:w val="0.40314997467421837"/>
-          <c:h val="0.66930723950768312"/>
+          <c:h val="0.66930723950768334"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -3961,11 +3961,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="209025664"/>
-        <c:axId val="209031552"/>
+        <c:axId val="240848256"/>
+        <c:axId val="240866816"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="209025664"/>
+        <c:axId val="240848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,14 +4011,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209031552"/>
+        <c:crossAx val="240866816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209031552"/>
+        <c:axId val="240866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4070,7 +4070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209025664"/>
+        <c:crossAx val="240848256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4116,7 +4116,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4133,10 +4133,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27035483722429443"/>
+          <c:x val="0.27035483722429465"/>
           <c:y val="0.11874443849858576"/>
           <c:w val="0.40314997467421837"/>
-          <c:h val="0.66930723950768312"/>
+          <c:h val="0.66930723950768334"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4227,11 +4227,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="209063936"/>
-        <c:axId val="209065472"/>
+        <c:axId val="240902528"/>
+        <c:axId val="240904448"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="209063936"/>
+        <c:axId val="240902528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,14 +4277,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209065472"/>
+        <c:crossAx val="240904448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209065472"/>
+        <c:axId val="240904448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4336,7 +4336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209063936"/>
+        <c:crossAx val="240902528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4382,7 +4382,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4487,11 +4487,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="175048192"/>
-        <c:axId val="175049728"/>
+        <c:axId val="239337856"/>
+        <c:axId val="239339776"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="175048192"/>
+        <c:axId val="239337856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4537,14 +4537,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175049728"/>
+        <c:crossAx val="239339776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175049728"/>
+        <c:axId val="239339776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4596,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175048192"/>
+        <c:crossAx val="239337856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4642,7 +4642,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4662,7 +4662,7 @@
           <c:x val="0.37420352285390884"/>
           <c:y val="0.17425552316186591"/>
           <c:w val="0.24117121005806497"/>
-          <c:h val="0.64223785331736938"/>
+          <c:h val="0.6422378533173696"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -4757,11 +4757,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="175419392"/>
-        <c:axId val="175420928"/>
+        <c:axId val="239479040"/>
+        <c:axId val="239505792"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="175419392"/>
+        <c:axId val="239479040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4807,14 +4807,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175420928"/>
+        <c:crossAx val="239505792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175420928"/>
+        <c:axId val="239505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4866,7 +4866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175419392"/>
+        <c:crossAx val="239479040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -4914,7 +4914,7 @@
     <c:headerFooter>
       <c:oddFooter>&amp;L© DNAworldwide.com&amp;RPage 5</c:oddFooter>
     </c:headerFooter>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5020,11 +5020,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="175641728"/>
-        <c:axId val="175643264"/>
+        <c:axId val="239588096"/>
+        <c:axId val="239590016"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="175641728"/>
+        <c:axId val="239588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,14 +5070,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175643264"/>
+        <c:crossAx val="239590016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175643264"/>
+        <c:axId val="239590016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5129,7 +5129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175641728"/>
+        <c:crossAx val="239588096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5175,7 +5175,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5280,11 +5280,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="175732608"/>
-        <c:axId val="175734144"/>
+        <c:axId val="239733376"/>
+        <c:axId val="239739648"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="175732608"/>
+        <c:axId val="239733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5330,14 +5330,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175734144"/>
+        <c:crossAx val="239739648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175734144"/>
+        <c:axId val="239739648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5389,7 +5389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175732608"/>
+        <c:crossAx val="239733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5435,7 +5435,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5453,8 +5453,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.32253760652799757"/>
-          <c:y val="0.16572229245038766"/>
-          <c:w val="0.36154830222493389"/>
+          <c:y val="0.16572229245038772"/>
+          <c:w val="0.361548302224934"/>
           <c:h val="0.57763809987968162"/>
         </c:manualLayout>
       </c:layout>
@@ -5550,11 +5550,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="175811200"/>
-        <c:axId val="175817088"/>
+        <c:axId val="239690496"/>
+        <c:axId val="239692416"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="175811200"/>
+        <c:axId val="239690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,14 +5600,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175817088"/>
+        <c:crossAx val="239692416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175817088"/>
+        <c:axId val="239692416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5659,7 +5659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175811200"/>
+        <c:crossAx val="239690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5705,7 +5705,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5723,9 +5723,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.36869923938174631"/>
-          <c:y val="0.20170688876314938"/>
-          <c:w val="0.24668570557136346"/>
-          <c:h val="0.54742394084553492"/>
+          <c:y val="0.20170688876314941"/>
+          <c:w val="0.24668570557136352"/>
+          <c:h val="0.5474239408455347"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -5820,11 +5820,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="177116288"/>
-        <c:axId val="177117824"/>
+        <c:axId val="239917696"/>
+        <c:axId val="239932160"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="177116288"/>
+        <c:axId val="239917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5870,14 +5870,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177117824"/>
+        <c:crossAx val="239932160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177117824"/>
+        <c:axId val="239932160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5929,7 +5929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177116288"/>
+        <c:crossAx val="239917696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5975,7 +5975,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5993,9 +5993,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.38010960823551132"/>
-          <c:y val="0.22278156897054527"/>
+          <c:y val="0.22278156897054519"/>
           <c:w val="0.23988360678268181"/>
-          <c:h val="0.62049256342957171"/>
+          <c:h val="0.62049256342957193"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -6090,11 +6090,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178404736"/>
-        <c:axId val="178427008"/>
+        <c:axId val="239989504"/>
+        <c:axId val="239991424"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178404736"/>
+        <c:axId val="239989504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,14 +6140,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178427008"/>
+        <c:crossAx val="239991424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178427008"/>
+        <c:axId val="239991424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6199,7 +6199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178404736"/>
+        <c:crossAx val="239989504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6245,7 +6245,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6262,10 +6262,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32784718497423437"/>
-          <c:y val="0.19633468565279635"/>
-          <c:w val="0.34494608975182056"/>
-          <c:h val="0.65581331350675243"/>
+          <c:x val="0.32784718497423454"/>
+          <c:y val="0.19633468565279641"/>
+          <c:w val="0.34494608975182067"/>
+          <c:h val="0.65581331350675265"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -6360,11 +6360,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="178530176"/>
-        <c:axId val="178531712"/>
+        <c:axId val="240282240"/>
+        <c:axId val="240300800"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="178530176"/>
+        <c:axId val="240282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,14 +6410,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178531712"/>
+        <c:crossAx val="240300800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178531712"/>
+        <c:axId val="240300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6469,7 +6469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178530176"/>
+        <c:crossAx val="240282240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6515,7 +6515,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22098,7 +22098,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A22:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -24241,7 +24241,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A8:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -25043,7 +25043,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:BG170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
